--- a/TNR_PREJDD/MP/PREJDD.MP.CPT.xlsx
+++ b/TNR_PREJDD/MP/PREJDD.MP.CPT.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Version" r:id="rId1" sheetId="1"/>
-    <sheet name="001" r:id="rId10" sheetId="3"/>
-    <sheet name="MODELE" r:id="rId2" sheetId="2"/>
+    <sheet name="001" r:id="rId2" sheetId="3"/>
+    <sheet name="001A" r:id="rId10" sheetId="4"/>
+    <sheet name="MODELE" r:id="rId3" sheetId="2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +137,18 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>CAS DE TEST (HISCOM)</t>
+  </si>
+  <si>
+    <t>DT_VAL</t>
+  </si>
+  <si>
+    <t>NU_VAL</t>
+  </si>
+  <si>
+    <t>Création de l'onglet 001A pour la table HISCOM</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -231,6 +244,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -300,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -310,8 +338,10 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -519,21 +549,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G975"/>
+  <dimension ref="A1:G974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="A3" pane="bottomLeft" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="69.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="6" max="26" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="69.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="26" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.75" r="1" spans="1:6">
@@ -557,23 +587,39 @@
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="2" spans="1:6">
-      <c r="A2" t="n" s="7">
-        <v>45016.67626086806</v>
+      <c r="A2" s="7">
+        <v>45016.676260868058</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="3" spans="1:6"/>
+    <row customHeight="1" ht="12.75" r="3" spans="1:6">
+      <c r="A3" t="n" s="9">
+        <v>45020.361825092594</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
     <row customHeight="1" ht="12.75" r="4" spans="1:6"/>
     <row customHeight="1" ht="12.75" r="5" spans="1:6"/>
     <row customHeight="1" ht="12.75" r="6" spans="1:6"/>
@@ -1545,7 +1591,6 @@
     <row customHeight="1" ht="12.75" r="972"/>
     <row customHeight="1" ht="12.75" r="973"/>
     <row customHeight="1" ht="12.75" r="974"/>
-    <row customHeight="1" ht="12.75" r="975"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1553,6 +1598,3102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AB997"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1"/>
+      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
+      <selection activeCell="D17" pane="bottomRight" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="5" spans="1:27">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" spans="1:27">
+      <c r="A2" s="3"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="3" spans="1:27">
+      <c r="A3" s="3"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" spans="1:27">
+      <c r="A4" s="3"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" spans="1:27">
+      <c r="A5" s="3"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" spans="1:27">
+      <c r="A6" s="3"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" spans="1:27">
+      <c r="A7" s="3"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" spans="1:27">
+      <c r="A8" s="3"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" spans="1:27">
+      <c r="A9" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" spans="1:27">
+      <c r="A10" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" spans="1:27">
+      <c r="A11" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" spans="1:27">
+      <c r="A12" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" spans="1:27">
+      <c r="A13" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="14" spans="1:27">
+      <c r="A14" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" spans="1:27">
+      <c r="A15" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="16" spans="1:27">
+      <c r="A16" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="21" spans="1:1">
+      <c r="A21" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="22" spans="1:1">
+      <c r="A22" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" spans="1:1">
+      <c r="A23" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="24" spans="1:1">
+      <c r="A24" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="25" spans="1:1">
+      <c r="A25" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="26" spans="1:1">
+      <c r="A26" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" spans="1:1">
+      <c r="A27" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="28" spans="1:1">
+      <c r="A28" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="29" spans="1:1">
+      <c r="A29" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="30" spans="1:1">
+      <c r="A30" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="31" spans="1:1">
+      <c r="A31" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="32" spans="1:1">
+      <c r="A32" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" spans="1:1">
+      <c r="A33" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="34" spans="1:1">
+      <c r="A34" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="35" spans="1:1">
+      <c r="A35" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="36" spans="1:1">
+      <c r="A36" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="37" spans="1:1">
+      <c r="A37" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="38" spans="1:1">
+      <c r="A38" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="39" spans="1:1">
+      <c r="A39" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="40" spans="1:1">
+      <c r="A40" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="41" spans="1:1">
+      <c r="A41" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="42" spans="1:1">
+      <c r="A42" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="43" spans="1:1">
+      <c r="A43" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="44" spans="1:1">
+      <c r="A44" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="45" spans="1:1">
+      <c r="A45" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="46" spans="1:1">
+      <c r="A46" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="47" spans="1:1">
+      <c r="A47" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="48" spans="1:1">
+      <c r="A48" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="49" spans="1:1">
+      <c r="A49" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="50" spans="1:1">
+      <c r="A50" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="51" spans="1:1">
+      <c r="A51" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="52" spans="1:1">
+      <c r="A52" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="53" spans="1:1">
+      <c r="A53" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="54" spans="1:1">
+      <c r="A54" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="55" spans="1:1">
+      <c r="A55" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="56" spans="1:1">
+      <c r="A56" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="57" spans="1:1">
+      <c r="A57" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="58" spans="1:1">
+      <c r="A58" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="59" spans="1:1">
+      <c r="A59" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="60" spans="1:1">
+      <c r="A60" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="61" spans="1:1">
+      <c r="A61" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="62" spans="1:1">
+      <c r="A62" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="63" spans="1:1">
+      <c r="A63" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="64" spans="1:1">
+      <c r="A64" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="65" spans="1:1">
+      <c r="A65" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="66" spans="1:1">
+      <c r="A66" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="67" spans="1:1">
+      <c r="A67" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="68" spans="1:1">
+      <c r="A68" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="69" spans="1:1">
+      <c r="A69" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="70" spans="1:1">
+      <c r="A70" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="71" spans="1:1">
+      <c r="A71" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="72" spans="1:1">
+      <c r="A72" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="73" spans="1:1">
+      <c r="A73" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="74" spans="1:1">
+      <c r="A74" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="75" spans="1:1">
+      <c r="A75" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="76" spans="1:1">
+      <c r="A76" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="77" spans="1:1">
+      <c r="A77" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="78" spans="1:1">
+      <c r="A78" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="79" spans="1:1">
+      <c r="A79" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="80" spans="1:1">
+      <c r="A80" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="81" spans="1:1">
+      <c r="A81" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="82" spans="1:1">
+      <c r="A82" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="83" spans="1:1">
+      <c r="A83" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="84" spans="1:1">
+      <c r="A84" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="85" spans="1:1">
+      <c r="A85" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="86" spans="1:1">
+      <c r="A86" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="87" spans="1:1">
+      <c r="A87" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="88" spans="1:1">
+      <c r="A88" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="89" spans="1:1">
+      <c r="A89" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="90" spans="1:1">
+      <c r="A90" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="91" spans="1:1">
+      <c r="A91" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="92" spans="1:1">
+      <c r="A92" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="93" spans="1:1">
+      <c r="A93" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="94" spans="1:1">
+      <c r="A94" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="95" spans="1:1">
+      <c r="A95" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="96" spans="1:1">
+      <c r="A96" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="97" spans="1:1">
+      <c r="A97" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="98" spans="1:1">
+      <c r="A98" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="99" spans="1:1">
+      <c r="A99" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="100" spans="1:1">
+      <c r="A100" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="101" spans="1:1">
+      <c r="A101" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="102" spans="1:1">
+      <c r="A102" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="103" spans="1:1">
+      <c r="A103" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="104" spans="1:1">
+      <c r="A104" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="105" spans="1:1">
+      <c r="A105" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="106" spans="1:1">
+      <c r="A106" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="107" spans="1:1">
+      <c r="A107" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="108" spans="1:1">
+      <c r="A108" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="109" spans="1:1">
+      <c r="A109" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="110" spans="1:1">
+      <c r="A110" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="111" spans="1:1">
+      <c r="A111" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="112" spans="1:1">
+      <c r="A112" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="113" spans="1:1">
+      <c r="A113" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="114" spans="1:1">
+      <c r="A114" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="115" spans="1:1">
+      <c r="A115" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="116" spans="1:1">
+      <c r="A116" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="117" spans="1:1">
+      <c r="A117" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="118" spans="1:1">
+      <c r="A118" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="119" spans="1:1">
+      <c r="A119" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="120" spans="1:1">
+      <c r="A120" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="121" spans="1:1">
+      <c r="A121" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="122" spans="1:1">
+      <c r="A122" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="123" spans="1:1">
+      <c r="A123" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="124" spans="1:1">
+      <c r="A124" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="125" spans="1:1">
+      <c r="A125" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="126" spans="1:1">
+      <c r="A126" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="127" spans="1:1">
+      <c r="A127" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="128" spans="1:1">
+      <c r="A128" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="129" spans="1:1">
+      <c r="A129" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="130" spans="1:1">
+      <c r="A130" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="131" spans="1:1">
+      <c r="A131" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="132" spans="1:1">
+      <c r="A132" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="133" spans="1:1">
+      <c r="A133" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="134" spans="1:1">
+      <c r="A134" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="135" spans="1:1">
+      <c r="A135" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="136" spans="1:1">
+      <c r="A136" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="137" spans="1:1">
+      <c r="A137" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="138" spans="1:1">
+      <c r="A138" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="139" spans="1:1">
+      <c r="A139" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="140" spans="1:1">
+      <c r="A140" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="141" spans="1:1">
+      <c r="A141" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="142" spans="1:1">
+      <c r="A142" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="143" spans="1:1">
+      <c r="A143" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="144" spans="1:1">
+      <c r="A144" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="145" spans="1:1">
+      <c r="A145" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="146" spans="1:1">
+      <c r="A146" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="147" spans="1:1">
+      <c r="A147" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="148" spans="1:1">
+      <c r="A148" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="149" spans="1:1">
+      <c r="A149" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="150" spans="1:1">
+      <c r="A150" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="151" spans="1:1">
+      <c r="A151" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="152" spans="1:1">
+      <c r="A152" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="153" spans="1:1">
+      <c r="A153" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="154" spans="1:1">
+      <c r="A154" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="155" spans="1:1">
+      <c r="A155" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="156" spans="1:1">
+      <c r="A156" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="157" spans="1:1">
+      <c r="A157" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="158" spans="1:1">
+      <c r="A158" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="159" spans="1:1">
+      <c r="A159" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="160" spans="1:1">
+      <c r="A160" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="161" spans="1:1">
+      <c r="A161" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="162" spans="1:1">
+      <c r="A162" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="163" spans="1:1">
+      <c r="A163" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="164" spans="1:1">
+      <c r="A164" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="165" spans="1:1">
+      <c r="A165" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="166" spans="1:1">
+      <c r="A166" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="167" spans="1:1">
+      <c r="A167" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="168" spans="1:1">
+      <c r="A168" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="169" spans="1:1">
+      <c r="A169" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="170" spans="1:1">
+      <c r="A170" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="171" spans="1:1">
+      <c r="A171" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="172" spans="1:1">
+      <c r="A172" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="173" spans="1:1">
+      <c r="A173" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="174" spans="1:1">
+      <c r="A174" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="175" spans="1:1">
+      <c r="A175" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="176" spans="1:1">
+      <c r="A176" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="177" spans="1:1">
+      <c r="A177" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="178" spans="1:1">
+      <c r="A178" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="179" spans="1:1">
+      <c r="A179" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="180" spans="1:1">
+      <c r="A180" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="181" spans="1:1">
+      <c r="A181" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="182" spans="1:1">
+      <c r="A182" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="183" spans="1:1">
+      <c r="A183" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="184" spans="1:1">
+      <c r="A184" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="185" spans="1:1">
+      <c r="A185" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="186" spans="1:1">
+      <c r="A186" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="187" spans="1:1">
+      <c r="A187" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="188" spans="1:1">
+      <c r="A188" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="189" spans="1:1">
+      <c r="A189" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="190" spans="1:1">
+      <c r="A190" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="191" spans="1:1">
+      <c r="A191" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="192" spans="1:1">
+      <c r="A192" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="193" spans="1:1">
+      <c r="A193" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="194" spans="1:1">
+      <c r="A194" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="195" spans="1:1">
+      <c r="A195" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="196" spans="1:1">
+      <c r="A196" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="197" spans="1:1">
+      <c r="A197" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="198" spans="1:1">
+      <c r="A198" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="199" spans="1:1">
+      <c r="A199" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="200" spans="1:1">
+      <c r="A200" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="201" spans="1:1">
+      <c r="A201" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="202" spans="1:1">
+      <c r="A202" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="203" spans="1:1">
+      <c r="A203" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="204" spans="1:1">
+      <c r="A204" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="205" spans="1:1">
+      <c r="A205" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="206" spans="1:1">
+      <c r="A206" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="207" spans="1:1">
+      <c r="A207" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="208" spans="1:1">
+      <c r="A208" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="209" spans="1:1">
+      <c r="A209" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="210" spans="1:1">
+      <c r="A210" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="211" spans="1:1">
+      <c r="A211" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="212" spans="1:1">
+      <c r="A212" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="213" spans="1:1">
+      <c r="A213" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="214" spans="1:1">
+      <c r="A214" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="215" spans="1:1">
+      <c r="A215" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="216" spans="1:1">
+      <c r="A216" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="217" spans="1:1">
+      <c r="A217" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="218" spans="1:1">
+      <c r="A218" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="219" spans="1:1">
+      <c r="A219" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="220" spans="1:1">
+      <c r="A220" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="221" spans="1:1">
+      <c r="A221" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="222" spans="1:1">
+      <c r="A222" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="223" spans="1:1">
+      <c r="A223" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="224" spans="1:1">
+      <c r="A224" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="225" spans="1:1">
+      <c r="A225" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="226" spans="1:1">
+      <c r="A226" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="227" spans="1:1">
+      <c r="A227" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="228" spans="1:1">
+      <c r="A228" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="229" spans="1:1">
+      <c r="A229" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="230" spans="1:1">
+      <c r="A230" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="231" spans="1:1">
+      <c r="A231" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="232" spans="1:1">
+      <c r="A232" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="233" spans="1:1">
+      <c r="A233" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="234" spans="1:1">
+      <c r="A234" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="235" spans="1:1">
+      <c r="A235" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="236" spans="1:1">
+      <c r="A236" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="237" spans="1:1">
+      <c r="A237" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="238" spans="1:1">
+      <c r="A238" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="239" spans="1:1">
+      <c r="A239" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="240" spans="1:1">
+      <c r="A240" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="241" spans="1:1">
+      <c r="A241" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="242" spans="1:1">
+      <c r="A242" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="243" spans="1:1">
+      <c r="A243" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="244" spans="1:1">
+      <c r="A244" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="245" spans="1:1">
+      <c r="A245" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="246" spans="1:1">
+      <c r="A246" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="247" spans="1:1">
+      <c r="A247" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="248" spans="1:1">
+      <c r="A248" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="249" spans="1:1">
+      <c r="A249" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="250" spans="1:1">
+      <c r="A250" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="251" spans="1:1">
+      <c r="A251" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="252" spans="1:1">
+      <c r="A252" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="253" spans="1:1">
+      <c r="A253" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="254" spans="1:1">
+      <c r="A254" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="255" spans="1:1">
+      <c r="A255" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="256" spans="1:1">
+      <c r="A256" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="257" spans="1:1">
+      <c r="A257" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="258" spans="1:1">
+      <c r="A258" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="259" spans="1:1">
+      <c r="A259" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="260" spans="1:1">
+      <c r="A260" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="261" spans="1:1">
+      <c r="A261" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="262" spans="1:1">
+      <c r="A262" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="263" spans="1:1">
+      <c r="A263" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="264" spans="1:1">
+      <c r="A264" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="265" spans="1:1">
+      <c r="A265" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="266" spans="1:1">
+      <c r="A266" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="267" spans="1:1">
+      <c r="A267" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="268" spans="1:1">
+      <c r="A268" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="269" spans="1:1">
+      <c r="A269" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="270" spans="1:1">
+      <c r="A270" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="271" spans="1:1">
+      <c r="A271" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="272" spans="1:1">
+      <c r="A272" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="273" spans="1:1">
+      <c r="A273" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="274" spans="1:1">
+      <c r="A274" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="275" spans="1:1">
+      <c r="A275" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="276" spans="1:1">
+      <c r="A276" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="277" spans="1:1">
+      <c r="A277" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="278" spans="1:1">
+      <c r="A278" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="279" spans="1:1">
+      <c r="A279" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="280" spans="1:1">
+      <c r="A280" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="281" spans="1:1">
+      <c r="A281" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="282" spans="1:1">
+      <c r="A282" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="283" spans="1:1">
+      <c r="A283" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="284" spans="1:1">
+      <c r="A284" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="285" spans="1:1">
+      <c r="A285" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="286" spans="1:1">
+      <c r="A286" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="287" spans="1:1">
+      <c r="A287" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="288" spans="1:1">
+      <c r="A288" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="289" spans="1:1">
+      <c r="A289" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="290" spans="1:1">
+      <c r="A290" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="291" spans="1:1">
+      <c r="A291" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="292" spans="1:1">
+      <c r="A292" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="293" spans="1:1">
+      <c r="A293" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="294" spans="1:1">
+      <c r="A294" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="295" spans="1:1">
+      <c r="A295" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="296" spans="1:1">
+      <c r="A296" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="297" spans="1:1">
+      <c r="A297" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="298" spans="1:1">
+      <c r="A298" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="299" spans="1:1">
+      <c r="A299" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="300" spans="1:1">
+      <c r="A300" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="301" spans="1:1">
+      <c r="A301" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="302" spans="1:1">
+      <c r="A302" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="303" spans="1:1">
+      <c r="A303" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="304" spans="1:1">
+      <c r="A304" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="305" spans="1:1">
+      <c r="A305" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="306" spans="1:1">
+      <c r="A306" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="307" spans="1:1">
+      <c r="A307" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="308" spans="1:1">
+      <c r="A308" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="309" spans="1:1">
+      <c r="A309" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="310" spans="1:1">
+      <c r="A310" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="311" spans="1:1">
+      <c r="A311" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="312" spans="1:1">
+      <c r="A312" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="313" spans="1:1">
+      <c r="A313" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="314" spans="1:1">
+      <c r="A314" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="315" spans="1:1">
+      <c r="A315" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="316" spans="1:1">
+      <c r="A316" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="317" spans="1:1">
+      <c r="A317" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="318" spans="1:1">
+      <c r="A318" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="319" spans="1:1">
+      <c r="A319" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="320" spans="1:1">
+      <c r="A320" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="321" spans="1:1">
+      <c r="A321" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="322" spans="1:1">
+      <c r="A322" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="323" spans="1:1">
+      <c r="A323" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="324" spans="1:1">
+      <c r="A324" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="325" spans="1:1">
+      <c r="A325" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="326" spans="1:1">
+      <c r="A326" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="327" spans="1:1">
+      <c r="A327" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="328" spans="1:1">
+      <c r="A328" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="329" spans="1:1">
+      <c r="A329" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="330" spans="1:1">
+      <c r="A330" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="331" spans="1:1">
+      <c r="A331" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="332" spans="1:1">
+      <c r="A332" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="333" spans="1:1">
+      <c r="A333" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="334" spans="1:1">
+      <c r="A334" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="335" spans="1:1">
+      <c r="A335" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="336" spans="1:1">
+      <c r="A336" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="337" spans="1:1">
+      <c r="A337" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="338" spans="1:1">
+      <c r="A338" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="339" spans="1:1">
+      <c r="A339" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="340" spans="1:1">
+      <c r="A340" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="341" spans="1:1">
+      <c r="A341" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="342" spans="1:1">
+      <c r="A342" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="343" spans="1:1">
+      <c r="A343" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="344" spans="1:1">
+      <c r="A344" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="345" spans="1:1">
+      <c r="A345" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="346" spans="1:1">
+      <c r="A346" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="347" spans="1:1">
+      <c r="A347" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="348" spans="1:1">
+      <c r="A348" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="349" spans="1:1">
+      <c r="A349" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="350" spans="1:1">
+      <c r="A350" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="351" spans="1:1">
+      <c r="A351" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="352" spans="1:1">
+      <c r="A352" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="353" spans="1:1">
+      <c r="A353" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="354" spans="1:1">
+      <c r="A354" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="355" spans="1:1">
+      <c r="A355" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="356" spans="1:1">
+      <c r="A356" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="357" spans="1:1">
+      <c r="A357" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="358" spans="1:1">
+      <c r="A358" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="359" spans="1:1">
+      <c r="A359" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="360" spans="1:1">
+      <c r="A360" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="361" spans="1:1">
+      <c r="A361" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="362" spans="1:1">
+      <c r="A362" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="363" spans="1:1">
+      <c r="A363" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="364" spans="1:1">
+      <c r="A364" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="365" spans="1:1">
+      <c r="A365" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="366" spans="1:1">
+      <c r="A366" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="367" spans="1:1">
+      <c r="A367" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="368" spans="1:1">
+      <c r="A368" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="369" spans="1:1">
+      <c r="A369" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="370" spans="1:1">
+      <c r="A370" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="371" spans="1:1">
+      <c r="A371" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="372" spans="1:1">
+      <c r="A372" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="373" spans="1:1">
+      <c r="A373" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="374" spans="1:1">
+      <c r="A374" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="375" spans="1:1">
+      <c r="A375" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="376" spans="1:1">
+      <c r="A376" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="377" spans="1:1">
+      <c r="A377" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="378" spans="1:1">
+      <c r="A378" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="379" spans="1:1">
+      <c r="A379" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="380" spans="1:1">
+      <c r="A380" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="381" spans="1:1">
+      <c r="A381" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="382" spans="1:1">
+      <c r="A382" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="383" spans="1:1">
+      <c r="A383" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="384" spans="1:1">
+      <c r="A384" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="385" spans="1:1">
+      <c r="A385" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="386" spans="1:1">
+      <c r="A386" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="387" spans="1:1">
+      <c r="A387" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="388" spans="1:1">
+      <c r="A388" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="389" spans="1:1">
+      <c r="A389" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="390" spans="1:1">
+      <c r="A390" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="391" spans="1:1">
+      <c r="A391" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="392" spans="1:1">
+      <c r="A392" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="393" spans="1:1">
+      <c r="A393" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="394" spans="1:1">
+      <c r="A394" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="395" spans="1:1">
+      <c r="A395" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="396" spans="1:1">
+      <c r="A396" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="397" spans="1:1">
+      <c r="A397" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="398" spans="1:1">
+      <c r="A398" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="399" spans="1:1">
+      <c r="A399" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="400" spans="1:1">
+      <c r="A400" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="401" spans="1:1">
+      <c r="A401" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="402" spans="1:1">
+      <c r="A402" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="403" spans="1:1">
+      <c r="A403" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="404" spans="1:1">
+      <c r="A404" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="405" spans="1:1">
+      <c r="A405" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="406" spans="1:1">
+      <c r="A406" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="407" spans="1:1">
+      <c r="A407" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="408" spans="1:1">
+      <c r="A408" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="409" spans="1:1">
+      <c r="A409" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="410" spans="1:1">
+      <c r="A410" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="411" spans="1:1">
+      <c r="A411" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="412" spans="1:1">
+      <c r="A412" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="413" spans="1:1">
+      <c r="A413" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="414" spans="1:1">
+      <c r="A414" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="415" spans="1:1">
+      <c r="A415" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="416" spans="1:1">
+      <c r="A416" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="417" spans="1:1">
+      <c r="A417" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="418" spans="1:1">
+      <c r="A418" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="419" spans="1:1">
+      <c r="A419" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="420" spans="1:1">
+      <c r="A420" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="421" spans="1:1">
+      <c r="A421" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="422" spans="1:1">
+      <c r="A422" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="423" spans="1:1">
+      <c r="A423" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="424" spans="1:1">
+      <c r="A424" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="425" spans="1:1">
+      <c r="A425" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="426" spans="1:1">
+      <c r="A426" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="427" spans="1:1">
+      <c r="A427" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="428" spans="1:1">
+      <c r="A428" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="429" spans="1:1">
+      <c r="A429" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="430" spans="1:1">
+      <c r="A430" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="431" spans="1:1">
+      <c r="A431" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="432" spans="1:1">
+      <c r="A432" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="433" spans="1:1">
+      <c r="A433" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="434" spans="1:1">
+      <c r="A434" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="435" spans="1:1">
+      <c r="A435" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="436" spans="1:1">
+      <c r="A436" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="437" spans="1:1">
+      <c r="A437" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="438" spans="1:1">
+      <c r="A438" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="439" spans="1:1">
+      <c r="A439" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="440" spans="1:1">
+      <c r="A440" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="441" spans="1:1">
+      <c r="A441" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="442" spans="1:1">
+      <c r="A442" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="443" spans="1:1">
+      <c r="A443" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="444" spans="1:1">
+      <c r="A444" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="445" spans="1:1">
+      <c r="A445" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="446" spans="1:1">
+      <c r="A446" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="447" spans="1:1">
+      <c r="A447" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="448" spans="1:1">
+      <c r="A448" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="449" spans="1:1">
+      <c r="A449" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="450" spans="1:1">
+      <c r="A450" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="451" spans="1:1">
+      <c r="A451" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="452" spans="1:1">
+      <c r="A452" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="453" spans="1:1">
+      <c r="A453" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="454" spans="1:1">
+      <c r="A454" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="455" spans="1:1">
+      <c r="A455" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="456" spans="1:1">
+      <c r="A456" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="457" spans="1:1">
+      <c r="A457" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="458" spans="1:1">
+      <c r="A458" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="459" spans="1:1">
+      <c r="A459" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="460" spans="1:1">
+      <c r="A460" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="461" spans="1:1">
+      <c r="A461" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="462" spans="1:1">
+      <c r="A462" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="463" spans="1:1">
+      <c r="A463" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="464" spans="1:1">
+      <c r="A464" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="465" spans="1:1">
+      <c r="A465" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="466" spans="1:1">
+      <c r="A466" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="467" spans="1:1">
+      <c r="A467" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="468" spans="1:1">
+      <c r="A468" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="469" spans="1:1">
+      <c r="A469" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="470" spans="1:1">
+      <c r="A470" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="471" spans="1:1">
+      <c r="A471" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="472" spans="1:1">
+      <c r="A472" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="473" spans="1:1">
+      <c r="A473" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="474" spans="1:1">
+      <c r="A474" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="475" spans="1:1">
+      <c r="A475" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="476" spans="1:1">
+      <c r="A476" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="477" spans="1:1">
+      <c r="A477" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="478" spans="1:1">
+      <c r="A478" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="479" spans="1:1">
+      <c r="A479" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="480" spans="1:1">
+      <c r="A480" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="481" spans="1:1">
+      <c r="A481" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="482" spans="1:1">
+      <c r="A482" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="483" spans="1:1">
+      <c r="A483" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="484" spans="1:1">
+      <c r="A484" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="485" spans="1:1">
+      <c r="A485" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="486" spans="1:1">
+      <c r="A486" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="487" spans="1:1">
+      <c r="A487" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="488" spans="1:1">
+      <c r="A488" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="489" spans="1:1">
+      <c r="A489" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="490" spans="1:1">
+      <c r="A490" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="491" spans="1:1">
+      <c r="A491" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="492" spans="1:1">
+      <c r="A492" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="493" spans="1:1">
+      <c r="A493" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="494" spans="1:1">
+      <c r="A494" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="495" spans="1:1">
+      <c r="A495" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="496" spans="1:1">
+      <c r="A496" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="497" spans="1:1">
+      <c r="A497" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="498" spans="1:1">
+      <c r="A498" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="499" spans="1:1">
+      <c r="A499" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="500" spans="1:1">
+      <c r="A500" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="501" spans="1:1">
+      <c r="A501" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="502" spans="1:1">
+      <c r="A502" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="503" spans="1:1">
+      <c r="A503" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="504" spans="1:1">
+      <c r="A504" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="505" spans="1:1">
+      <c r="A505" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="506" spans="1:1">
+      <c r="A506" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="507" spans="1:1">
+      <c r="A507" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="508" spans="1:1">
+      <c r="A508" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="509" spans="1:1">
+      <c r="A509" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="510" spans="1:1">
+      <c r="A510" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="511" spans="1:1">
+      <c r="A511" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="512" spans="1:1">
+      <c r="A512" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="513" spans="1:1">
+      <c r="A513" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="514" spans="1:1">
+      <c r="A514" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="515" spans="1:1">
+      <c r="A515" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="516" spans="1:1">
+      <c r="A516" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="517" spans="1:1">
+      <c r="A517" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="518" spans="1:1">
+      <c r="A518" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="519" spans="1:1">
+      <c r="A519" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="520" spans="1:1">
+      <c r="A520" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="521" spans="1:1">
+      <c r="A521" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="522" spans="1:1">
+      <c r="A522" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="523" spans="1:1">
+      <c r="A523" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="524" spans="1:1">
+      <c r="A524" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="525" spans="1:1">
+      <c r="A525" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="526" spans="1:1">
+      <c r="A526" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="527" spans="1:1">
+      <c r="A527" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="528" spans="1:1">
+      <c r="A528" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="529" spans="1:1">
+      <c r="A529" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="530" spans="1:1">
+      <c r="A530" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="531" spans="1:1">
+      <c r="A531" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="532" spans="1:1">
+      <c r="A532" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="533" spans="1:1">
+      <c r="A533" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="534" spans="1:1">
+      <c r="A534" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="535" spans="1:1">
+      <c r="A535" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="536" spans="1:1">
+      <c r="A536" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="537" spans="1:1">
+      <c r="A537" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="538" spans="1:1">
+      <c r="A538" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="539" spans="1:1">
+      <c r="A539" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="540" spans="1:1">
+      <c r="A540" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="541" spans="1:1">
+      <c r="A541" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="542" spans="1:1">
+      <c r="A542" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="543" spans="1:1">
+      <c r="A543" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="544" spans="1:1">
+      <c r="A544" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="545" spans="1:1">
+      <c r="A545" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="546" spans="1:1">
+      <c r="A546" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="547" spans="1:1">
+      <c r="A547" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="548" spans="1:1">
+      <c r="A548" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="549" spans="1:1">
+      <c r="A549" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="550" spans="1:1">
+      <c r="A550" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="551" spans="1:1">
+      <c r="A551" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="552" spans="1:1">
+      <c r="A552" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="553" spans="1:1">
+      <c r="A553" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="554" spans="1:1">
+      <c r="A554" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="555" spans="1:1">
+      <c r="A555" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="556" spans="1:1">
+      <c r="A556" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="557" spans="1:1">
+      <c r="A557" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="558" spans="1:1">
+      <c r="A558" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="559" spans="1:1">
+      <c r="A559" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="560" spans="1:1">
+      <c r="A560" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="561" spans="1:1">
+      <c r="A561" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="562" spans="1:1">
+      <c r="A562" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="563" spans="1:1">
+      <c r="A563" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="564" spans="1:1">
+      <c r="A564" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="565" spans="1:1">
+      <c r="A565" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="566" spans="1:1">
+      <c r="A566" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="567" spans="1:1">
+      <c r="A567" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="568" spans="1:1">
+      <c r="A568" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="569" spans="1:1">
+      <c r="A569" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="570" spans="1:1">
+      <c r="A570" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="571" spans="1:1">
+      <c r="A571" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="572" spans="1:1">
+      <c r="A572" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="573" spans="1:1">
+      <c r="A573" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="574" spans="1:1">
+      <c r="A574" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="575" spans="1:1">
+      <c r="A575" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="576" spans="1:1">
+      <c r="A576" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="577" spans="1:1">
+      <c r="A577" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="578" spans="1:1">
+      <c r="A578" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="579" spans="1:1">
+      <c r="A579" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="580" spans="1:1">
+      <c r="A580" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="581" spans="1:1">
+      <c r="A581" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="582" spans="1:1">
+      <c r="A582" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="583" spans="1:1">
+      <c r="A583" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="584" spans="1:1">
+      <c r="A584" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="585" spans="1:1">
+      <c r="A585" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="586" spans="1:1">
+      <c r="A586" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="587" spans="1:1">
+      <c r="A587" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="588" spans="1:1">
+      <c r="A588" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="589" spans="1:1">
+      <c r="A589" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="590" spans="1:1">
+      <c r="A590" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="591" spans="1:1">
+      <c r="A591" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="592" spans="1:1">
+      <c r="A592" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="593" spans="1:1">
+      <c r="A593" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="594" spans="1:1">
+      <c r="A594" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="595" spans="1:1">
+      <c r="A595" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="596" spans="1:1">
+      <c r="A596" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="597" spans="1:1">
+      <c r="A597" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="598" spans="1:1">
+      <c r="A598" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="599" spans="1:1">
+      <c r="A599" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="600" spans="1:1">
+      <c r="A600" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="601" spans="1:1">
+      <c r="A601" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="602" spans="1:1">
+      <c r="A602" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="603" spans="1:1">
+      <c r="A603" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="604" spans="1:1">
+      <c r="A604" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="605" spans="1:1">
+      <c r="A605" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="606" spans="1:1">
+      <c r="A606" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="607" spans="1:1">
+      <c r="A607" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="608" spans="1:1">
+      <c r="A608" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="609" spans="1:1">
+      <c r="A609" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="610" spans="1:1">
+      <c r="A610" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="611" spans="1:1">
+      <c r="A611" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="612" spans="1:1">
+      <c r="A612" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="613" spans="1:1">
+      <c r="A613" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="614" spans="1:1">
+      <c r="A614" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="615" spans="1:1">
+      <c r="A615" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="616" spans="1:1">
+      <c r="A616" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="617" spans="1:1">
+      <c r="A617" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="618" spans="1:1">
+      <c r="A618" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="619" spans="1:1">
+      <c r="A619" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="620" spans="1:1">
+      <c r="A620" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="621" spans="1:1">
+      <c r="A621" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="622" spans="1:1">
+      <c r="A622" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="623" spans="1:1">
+      <c r="A623" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="624" spans="1:1">
+      <c r="A624" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="625" spans="1:1">
+      <c r="A625" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="626" spans="1:1">
+      <c r="A626" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="627" spans="1:1">
+      <c r="A627" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="628" spans="1:1">
+      <c r="A628" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="629" spans="1:1">
+      <c r="A629" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="630" spans="1:1">
+      <c r="A630" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="631" spans="1:1">
+      <c r="A631" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="632" spans="1:1">
+      <c r="A632" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="633" spans="1:1">
+      <c r="A633" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="634" spans="1:1">
+      <c r="A634" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="635" spans="1:1">
+      <c r="A635" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="636" spans="1:1">
+      <c r="A636" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="637" spans="1:1">
+      <c r="A637" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="638" spans="1:1">
+      <c r="A638" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="639" spans="1:1">
+      <c r="A639" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="640" spans="1:1">
+      <c r="A640" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="641" spans="1:1">
+      <c r="A641" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="642" spans="1:1">
+      <c r="A642" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="643" spans="1:1">
+      <c r="A643" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="644" spans="1:1">
+      <c r="A644" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="645" spans="1:1">
+      <c r="A645" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="646" spans="1:1">
+      <c r="A646" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="647" spans="1:1">
+      <c r="A647" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="648" spans="1:1">
+      <c r="A648" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="649" spans="1:1">
+      <c r="A649" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="650" spans="1:1">
+      <c r="A650" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="651" spans="1:1">
+      <c r="A651" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="652" spans="1:1">
+      <c r="A652" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="653" spans="1:1">
+      <c r="A653" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="654" spans="1:1">
+      <c r="A654" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="655" spans="1:1">
+      <c r="A655" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="656" spans="1:1">
+      <c r="A656" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="657" spans="1:1">
+      <c r="A657" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="658" spans="1:1">
+      <c r="A658" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="659" spans="1:1">
+      <c r="A659" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="660" spans="1:1">
+      <c r="A660" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="661" spans="1:1">
+      <c r="A661" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="662" spans="1:1">
+      <c r="A662" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="663" spans="1:1">
+      <c r="A663" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="664" spans="1:1">
+      <c r="A664" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="665" spans="1:1">
+      <c r="A665" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="666" spans="1:1">
+      <c r="A666" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="667" spans="1:1">
+      <c r="A667" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="668" spans="1:1">
+      <c r="A668" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="669" spans="1:1">
+      <c r="A669" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="670" spans="1:1">
+      <c r="A670" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="671" spans="1:1">
+      <c r="A671" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="672" spans="1:1">
+      <c r="A672" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="673" spans="1:1">
+      <c r="A673" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="674" spans="1:1">
+      <c r="A674" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="675" spans="1:1">
+      <c r="A675" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="676" spans="1:1">
+      <c r="A676" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="677" spans="1:1">
+      <c r="A677" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="678" spans="1:1">
+      <c r="A678" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="679" spans="1:1">
+      <c r="A679" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="680" spans="1:1">
+      <c r="A680" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="681" spans="1:1">
+      <c r="A681" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="682" spans="1:1">
+      <c r="A682" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="683" spans="1:1">
+      <c r="A683" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="684" spans="1:1">
+      <c r="A684" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="685" spans="1:1">
+      <c r="A685" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="686" spans="1:1">
+      <c r="A686" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="687" spans="1:1">
+      <c r="A687" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="688" spans="1:1">
+      <c r="A688" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="689" spans="1:1">
+      <c r="A689" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="690" spans="1:1">
+      <c r="A690" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="691" spans="1:1">
+      <c r="A691" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="692" spans="1:1">
+      <c r="A692" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="693" spans="1:1">
+      <c r="A693" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="694" spans="1:1">
+      <c r="A694" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="695" spans="1:1">
+      <c r="A695" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="696" spans="1:1">
+      <c r="A696" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="697" spans="1:1">
+      <c r="A697" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="698" spans="1:1">
+      <c r="A698" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="699" spans="1:1">
+      <c r="A699" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="700" spans="1:1">
+      <c r="A700" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="701" spans="1:1">
+      <c r="A701" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="702" spans="1:1">
+      <c r="A702" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="703" spans="1:1">
+      <c r="A703" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="704" spans="1:1">
+      <c r="A704" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="705" spans="1:1">
+      <c r="A705" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="706" spans="1:1">
+      <c r="A706" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="707" spans="1:1">
+      <c r="A707" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="708" spans="1:1">
+      <c r="A708" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="709" spans="1:1">
+      <c r="A709" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="710" spans="1:1">
+      <c r="A710" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="711" spans="1:1">
+      <c r="A711" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="712" spans="1:1">
+      <c r="A712" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="713" spans="1:1">
+      <c r="A713" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="714" spans="1:1">
+      <c r="A714" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="715" spans="1:1">
+      <c r="A715" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="716" spans="1:1">
+      <c r="A716" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="717" spans="1:1">
+      <c r="A717" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="718" spans="1:1">
+      <c r="A718" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="719" spans="1:1">
+      <c r="A719" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="720" spans="1:1">
+      <c r="A720" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="721" spans="1:1">
+      <c r="A721" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="722" spans="1:1">
+      <c r="A722" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="723" spans="1:1">
+      <c r="A723" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="724" spans="1:1">
+      <c r="A724" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="725" spans="1:1">
+      <c r="A725" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="726" spans="1:1">
+      <c r="A726" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="727" spans="1:1">
+      <c r="A727" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="728" spans="1:1">
+      <c r="A728" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="729" spans="1:1">
+      <c r="A729" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="730" spans="1:1">
+      <c r="A730" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="731" spans="1:1">
+      <c r="A731" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="732" spans="1:1">
+      <c r="A732" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="733" spans="1:1">
+      <c r="A733" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="734" spans="1:1">
+      <c r="A734" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="735" spans="1:1">
+      <c r="A735" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="736" spans="1:1">
+      <c r="A736" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="737" spans="1:1">
+      <c r="A737" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="738" spans="1:1">
+      <c r="A738" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="739" spans="1:1">
+      <c r="A739" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="740" spans="1:1">
+      <c r="A740" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="741" spans="1:1">
+      <c r="A741" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="742" spans="1:1">
+      <c r="A742" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="743" spans="1:1">
+      <c r="A743" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="744" spans="1:1">
+      <c r="A744" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="745" spans="1:1">
+      <c r="A745" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="746" spans="1:1">
+      <c r="A746" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="747" spans="1:1">
+      <c r="A747" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="748" spans="1:1">
+      <c r="A748" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="749" spans="1:1">
+      <c r="A749" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="750" spans="1:1">
+      <c r="A750" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="751" spans="1:1">
+      <c r="A751" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="752" spans="1:1">
+      <c r="A752" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="753" spans="1:1">
+      <c r="A753" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="754" spans="1:1">
+      <c r="A754" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="755" spans="1:1">
+      <c r="A755" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="756" spans="1:1">
+      <c r="A756" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="757" spans="1:1">
+      <c r="A757" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="758" spans="1:1">
+      <c r="A758" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="759" spans="1:1">
+      <c r="A759" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="760" spans="1:1">
+      <c r="A760" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="761" spans="1:1">
+      <c r="A761" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="762" spans="1:1">
+      <c r="A762" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="763" spans="1:1">
+      <c r="A763" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="764" spans="1:1">
+      <c r="A764" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="765" spans="1:1">
+      <c r="A765" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="766" spans="1:1">
+      <c r="A766" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="767" spans="1:1">
+      <c r="A767" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="768" spans="1:1">
+      <c r="A768" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="769" spans="1:1">
+      <c r="A769" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="770" spans="1:1">
+      <c r="A770" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="771" spans="1:1">
+      <c r="A771" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="772" spans="1:1">
+      <c r="A772" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="773" spans="1:1">
+      <c r="A773" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="774" spans="1:1">
+      <c r="A774" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="775" spans="1:1">
+      <c r="A775" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="776" spans="1:1">
+      <c r="A776" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="777" spans="1:1">
+      <c r="A777" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="778" spans="1:1">
+      <c r="A778" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="779" spans="1:1">
+      <c r="A779" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="780" spans="1:1">
+      <c r="A780" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="781" spans="1:1">
+      <c r="A781" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="782" spans="1:1">
+      <c r="A782" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="783" spans="1:1">
+      <c r="A783" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="784" spans="1:1">
+      <c r="A784" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="785" spans="1:1">
+      <c r="A785" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="786" spans="1:1">
+      <c r="A786" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="787" spans="1:1">
+      <c r="A787" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="788" spans="1:1">
+      <c r="A788" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="789" spans="1:1">
+      <c r="A789" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="790" spans="1:1">
+      <c r="A790" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="791" spans="1:1">
+      <c r="A791" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="792" spans="1:1">
+      <c r="A792" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="793" spans="1:1">
+      <c r="A793" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="794" spans="1:1">
+      <c r="A794" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="795" spans="1:1">
+      <c r="A795" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="796" spans="1:1">
+      <c r="A796" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="797" spans="1:1">
+      <c r="A797" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="798" spans="1:1">
+      <c r="A798" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="799" spans="1:1">
+      <c r="A799" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="800" spans="1:1">
+      <c r="A800" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="801" spans="1:1">
+      <c r="A801" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="802" spans="1:1">
+      <c r="A802" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="803" spans="1:1">
+      <c r="A803" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="804" spans="1:1">
+      <c r="A804" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="805" spans="1:1">
+      <c r="A805" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="806" spans="1:1">
+      <c r="A806" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="807" spans="1:1">
+      <c r="A807" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="808" spans="1:1">
+      <c r="A808" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="809" spans="1:1">
+      <c r="A809" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="810" spans="1:1">
+      <c r="A810" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="811" spans="1:1">
+      <c r="A811" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="812" spans="1:1">
+      <c r="A812" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="813" spans="1:1">
+      <c r="A813" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="814" spans="1:1">
+      <c r="A814" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="815" spans="1:1">
+      <c r="A815" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="816" spans="1:1">
+      <c r="A816" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="817" spans="1:1">
+      <c r="A817" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="818" spans="1:1">
+      <c r="A818" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="819" spans="1:1">
+      <c r="A819" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="820" spans="1:1">
+      <c r="A820" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="821" spans="1:1">
+      <c r="A821" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="822" spans="1:1">
+      <c r="A822" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="823" spans="1:1">
+      <c r="A823" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="824" spans="1:1">
+      <c r="A824" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="825" spans="1:1">
+      <c r="A825" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="826" spans="1:1">
+      <c r="A826" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="827" spans="1:1">
+      <c r="A827" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="828" spans="1:1">
+      <c r="A828" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="829" spans="1:1">
+      <c r="A829" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="830" spans="1:1">
+      <c r="A830" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="831" spans="1:1">
+      <c r="A831" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="832" spans="1:1">
+      <c r="A832" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="833" spans="1:1">
+      <c r="A833" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="834" spans="1:1">
+      <c r="A834" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="835" spans="1:1">
+      <c r="A835" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="836" spans="1:1">
+      <c r="A836" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="837" spans="1:1">
+      <c r="A837" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="838" spans="1:1">
+      <c r="A838" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="839" spans="1:1">
+      <c r="A839" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="840" spans="1:1">
+      <c r="A840" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="841" spans="1:1">
+      <c r="A841" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="842" spans="1:1">
+      <c r="A842" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="843" spans="1:1">
+      <c r="A843" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="844" spans="1:1">
+      <c r="A844" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="845" spans="1:1">
+      <c r="A845" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="846" spans="1:1">
+      <c r="A846" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="847" spans="1:1">
+      <c r="A847" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="848" spans="1:1">
+      <c r="A848" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="849" spans="1:1">
+      <c r="A849" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="850" spans="1:1">
+      <c r="A850" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="851" spans="1:1">
+      <c r="A851" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="852" spans="1:1">
+      <c r="A852" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="853" spans="1:1">
+      <c r="A853" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="854" spans="1:1">
+      <c r="A854" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="855" spans="1:1">
+      <c r="A855" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="856" spans="1:1">
+      <c r="A856" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="857" spans="1:1">
+      <c r="A857" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="858" spans="1:1">
+      <c r="A858" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="859" spans="1:1">
+      <c r="A859" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="860" spans="1:1">
+      <c r="A860" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="861" spans="1:1">
+      <c r="A861" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="862" spans="1:1">
+      <c r="A862" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="863" spans="1:1">
+      <c r="A863" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="864" spans="1:1">
+      <c r="A864" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="865" spans="1:1">
+      <c r="A865" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="866" spans="1:1">
+      <c r="A866" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="867" spans="1:1">
+      <c r="A867" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="868" spans="1:1">
+      <c r="A868" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="869" spans="1:1">
+      <c r="A869" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="870" spans="1:1">
+      <c r="A870" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="871" spans="1:1">
+      <c r="A871" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="872" spans="1:1">
+      <c r="A872" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="873" spans="1:1">
+      <c r="A873" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="874" spans="1:1">
+      <c r="A874" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="875" spans="1:1">
+      <c r="A875" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="876" spans="1:1">
+      <c r="A876" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="877" spans="1:1">
+      <c r="A877" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="878" spans="1:1">
+      <c r="A878" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="879" spans="1:1">
+      <c r="A879" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="880" spans="1:1">
+      <c r="A880" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="881" spans="1:1">
+      <c r="A881" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="882" spans="1:1">
+      <c r="A882" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="883" spans="1:1">
+      <c r="A883" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="884" spans="1:1">
+      <c r="A884" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="885" spans="1:1">
+      <c r="A885" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="886" spans="1:1">
+      <c r="A886" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="887" spans="1:1">
+      <c r="A887" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="888" spans="1:1">
+      <c r="A888" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="889" spans="1:1">
+      <c r="A889" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="890" spans="1:1">
+      <c r="A890" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="891" spans="1:1">
+      <c r="A891" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="892" spans="1:1">
+      <c r="A892" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="893" spans="1:1">
+      <c r="A893" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="894" spans="1:1">
+      <c r="A894" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="895" spans="1:1">
+      <c r="A895" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="896" spans="1:1">
+      <c r="A896" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="897" spans="1:1">
+      <c r="A897" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="898" spans="1:1">
+      <c r="A898" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="899" spans="1:1">
+      <c r="A899" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="900" spans="1:1">
+      <c r="A900" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="901" spans="1:1">
+      <c r="A901" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="902" spans="1:1">
+      <c r="A902" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="903" spans="1:1">
+      <c r="A903" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="904" spans="1:1">
+      <c r="A904" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="905" spans="1:1">
+      <c r="A905" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="906" spans="1:1">
+      <c r="A906" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="907" spans="1:1">
+      <c r="A907" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="908" spans="1:1">
+      <c r="A908" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="909" spans="1:1">
+      <c r="A909" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="910" spans="1:1">
+      <c r="A910" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="911" spans="1:1">
+      <c r="A911" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="912" spans="1:1">
+      <c r="A912" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="913" spans="1:1">
+      <c r="A913" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="914" spans="1:1">
+      <c r="A914" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="915" spans="1:1">
+      <c r="A915" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="916" spans="1:1">
+      <c r="A916" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="917" spans="1:1">
+      <c r="A917" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="918" spans="1:1">
+      <c r="A918" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="919" spans="1:1">
+      <c r="A919" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="920" spans="1:1">
+      <c r="A920" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="921" spans="1:1">
+      <c r="A921" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="922" spans="1:1">
+      <c r="A922" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="923" spans="1:1">
+      <c r="A923" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="924" spans="1:1">
+      <c r="A924" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="925" spans="1:1">
+      <c r="A925" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="926" spans="1:1">
+      <c r="A926" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="927" spans="1:1">
+      <c r="A927" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="928" spans="1:1">
+      <c r="A928" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="929" spans="1:1">
+      <c r="A929" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="930" spans="1:1">
+      <c r="A930" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="931" spans="1:1">
+      <c r="A931" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="932" spans="1:1">
+      <c r="A932" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="933" spans="1:1">
+      <c r="A933" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="934" spans="1:1">
+      <c r="A934" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="935" spans="1:1">
+      <c r="A935" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="936" spans="1:1">
+      <c r="A936" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="937" spans="1:1">
+      <c r="A937" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="938" spans="1:1">
+      <c r="A938" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="939" spans="1:1">
+      <c r="A939" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="940" spans="1:1">
+      <c r="A940" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="941" spans="1:1">
+      <c r="A941" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="942" spans="1:1">
+      <c r="A942" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="943" spans="1:1">
+      <c r="A943" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="944" spans="1:1">
+      <c r="A944" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="945" spans="1:1">
+      <c r="A945" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="946" spans="1:1">
+      <c r="A946" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="947" spans="1:1">
+      <c r="A947" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="948" spans="1:1">
+      <c r="A948" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="949" spans="1:1">
+      <c r="A949" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="950" spans="1:1">
+      <c r="A950" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="951" spans="1:1">
+      <c r="A951" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="952" spans="1:1">
+      <c r="A952" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="953" spans="1:1">
+      <c r="A953" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="954" spans="1:1">
+      <c r="A954" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="955" spans="1:1">
+      <c r="A955" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="956" spans="1:1">
+      <c r="A956" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="957" spans="1:1">
+      <c r="A957" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="958" spans="1:1">
+      <c r="A958" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="959" spans="1:1">
+      <c r="A959" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="960" spans="1:1">
+      <c r="A960" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="961" spans="1:1">
+      <c r="A961" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="962" spans="1:1">
+      <c r="A962" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="963" spans="1:1">
+      <c r="A963" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="964" spans="1:1">
+      <c r="A964" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="965" spans="1:1">
+      <c r="A965" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="966" spans="1:1">
+      <c r="A966" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="967" spans="1:1">
+      <c r="A967" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="968" spans="1:1">
+      <c r="A968" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="969" spans="1:1">
+      <c r="A969" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="970" spans="1:1">
+      <c r="A970" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="971" spans="1:1">
+      <c r="A971" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="972" spans="1:1">
+      <c r="A972" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="973" spans="1:1">
+      <c r="A973" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="974" spans="1:1">
+      <c r="A974" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="975" spans="1:1">
+      <c r="A975" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="976" spans="1:1">
+      <c r="A976" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="977" spans="1:1">
+      <c r="A977" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="978" spans="1:1">
+      <c r="A978" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="979" spans="1:1">
+      <c r="A979" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="980" spans="1:1">
+      <c r="A980" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="981" spans="1:1">
+      <c r="A981" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="982" spans="1:1">
+      <c r="A982" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="983" spans="1:1">
+      <c r="A983" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="984" spans="1:1">
+      <c r="A984" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="985" spans="1:1">
+      <c r="A985" s="4"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="986" spans="1:1">
+      <c r="A986" s="4"/>
+    </row>
+    <row ht="13.2" r="987" spans="1:1">
+      <c r="A987" s="4"/>
+    </row>
+    <row ht="13.2" r="988" spans="1:1">
+      <c r="A988" s="4"/>
+    </row>
+    <row ht="13.2" r="989" spans="1:1">
+      <c r="A989" s="4"/>
+    </row>
+    <row ht="13.2" r="990" spans="1:1">
+      <c r="A990" s="4"/>
+    </row>
+    <row ht="13.2" r="991" spans="1:1">
+      <c r="A991" s="4"/>
+    </row>
+    <row ht="13.2" r="992" spans="1:1">
+      <c r="A992" s="4"/>
+    </row>
+    <row ht="13.2" r="993" spans="1:1">
+      <c r="A993" s="4"/>
+    </row>
+    <row ht="13.2" r="994" spans="1:1">
+      <c r="A994" s="4"/>
+    </row>
+    <row ht="13.2" r="995" spans="1:1">
+      <c r="A995" s="4"/>
+    </row>
+    <row ht="13.2" r="996" spans="1:1">
+      <c r="A996" s="4"/>
+    </row>
+    <row ht="13.2" r="997" spans="1:1">
+      <c r="A997" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1568,8 +4709,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15.75" r="1" s="5" spans="1:2">
@@ -4574,12 +7715,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB997"/>
+  <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="false">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4596,85 +7737,16 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15.75" r="1" s="5" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s" s="5">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="W1" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="X1" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="Y1" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="Z1" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s" s="5">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" spans="1:2">
